--- a/questionnaires/categories/impactsyesno.xlsx
+++ b/questionnaires/categories/impactsyesno.xlsx
@@ -1,313 +1,428 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E99C57B-6C13-49AD-ADA4-B5956217C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="1410" windowWidth="29070" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Categories" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National agricultural programme promoted iaea-supported mutated seeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National agricultural programme promoted iaea-supported soil and water management sustainable practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National agricultural programme adopted pest control practices promoted by iaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National livestock programme promoted iaea supported breeding practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National livestock programme promoted iaea supported mutated forrage/grasses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National livestock programme adopted pest control practices promoted by iaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agricultural products' exports increased thanks to food safety and quality control practices promoted by the iaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agricultural products' exports increased thanks to productivity increases supported by practices promoted by the iaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livestock products' exports increased thanks to productivity increases supported by practices promoted by the iaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agricultural and/or livestock products' exports increased thanks to pests control practices promoted by the iaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radioteraphy services for cancer traeatement supported by iaea contributed to improve the quality in healt services in the country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National integrated cancer control planning strategies supported by iaea contributed to improve the quality of health services in the country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnostic imaging and nuclear medicine services supported by iaea contributed to improve the quality in healt services in the country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality assurance procedures services supported by iaea, including diosimetry,  contributed to improve the quality in healt services in the country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increased understanding of the effectiveness of nutritional projects using isotopic techniques supported by the iaea reduced the incidence of nutritional-based deseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use of medical isotops/radioisotopes/radiopharmaceutical supported by iaea, contributed to the increased understanding of the effectiveness of treatement of ncds in the country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radioisotopes technologies supported by iaea contributed to improve in the assessment of nutritional projects effectivenesss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radioisotopes and radiopharmaceutical production supported by iaea contributed increase the use of medical isotopes in the country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National health programme adopted insect control practices promoted by iaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy planning tools supported by iaea been utilized in the desicion-making  on energy infrastructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy information systems / integrated resource plans supported by iaea been established to inform decisions in energy infrastructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National energy plans or integrated resource plans been developed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support provided by the iaea in developing the npp contruibuted to successfull management of the project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iaea supported the legislative process needed for the establishment of npps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The monitoring and warning systems contributing to the generation of information and reports for the efficient operation of the npp been supported by the iaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iaea contributed to the increased knowledge on smrs in the country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iaea support contributed to the improved management of nuclear fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase efficiency of industrial process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase equality and efficiency of industrial materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean and safer industrial process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve understanding of preservationn of cultural heritage/artefacts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibration and mantenance of nuclear instrumentation for monitoring and quality control systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuclear reactors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results of water diagnostics and testing, using isotope hydrology techniques supported by iaea, used for evidence-based selection of water sources in water resource management strategies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results of water mapping developed using isotope hydrology techniques supported by iaea, used to generate plans fand locate site remediation for reduce water contaminants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The increased understanding of freashwater aquifers and basins characteristics, through the use of isotope hydrology techniques supported by iaea, are used in integrated water management plans and actions in the country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The increased understanding of freashwater aquifers and basins characteristics, through the use of isotope hydrology techniques supported by iaea,  contributed to the development of clear transbondary operational cooperation agreement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water mappings and databased (such as vulnerability maps, water balance models etc, developed with the support of the iaea, been used in site remediation, water sourcing management and control plan activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has an evidenced-based water resource management strategy/plan been developed in your contry with the support of the iaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reliable scientific data on impact of ocean acidification/costal ecosystem vulnerability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reliable scientific data on impact of microplastic in the ocean and its ecosystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ability to produce data on pollutants and sediments studies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental regulations informed by data on pollutants/ negative effect of sediments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strategies and actions plan to combats land-air pollutants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data on hab and toxinsgenerated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring global networks on ocean acidifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring global networks on ocean plastic pollution</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>National agricultural programme promoted IAEA-supported mutated seeds</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>National agricultural programme promoted IAEA-supported sustainable soil and water management practices</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>National agricultural programme adopted pest control practices promoted by IAEA</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Reduced post-harvest losses in food production with the application of irradiation technology</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>National livestock programme promoted IAEA supported breeding practices</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>National livestock programme promoted IAEA supported mutated forrage/grasses</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>National livestock programme adopted veterinary pest control practices promoted by IAEA</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Effective and efficient food traceability, authenticity and contaminant control systems</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>A wider range of food products gained access to international market as a result of improved laboratory testing and establishment of surveillance programmes</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>IAEA support contributed to improved quality of national radiotherapy services</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>National integrated cancer control planning strategies supported by IAEA contributed to improve the quality of health services in the country</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>IAEA support contributed to improved quality of national diagnostic imaging and nuclear medicine services</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Quality assurance procedures and services supported by IAEA, including dosimetry, contributed to improve quality of health services in the country</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Increased competencies of healthcare professionals through IAEA capacity building contributed to enahncing quality and effectiveness of national radiation medicine services</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>Increased number of radiotherapy services for cancer treatement supported by the IAEA</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>National integrated cancer control planning strategies supported by IAEA contributed to expand radiotherapy services in the country</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>National integrated cancer control planning strategies supported by IAEA contributed to expand imaging services in the country</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>National integrated cancer control planning strategies supported by IAEA contributed to favour sustainability of cancer treatment and NCDs services</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>National integrated cancer control planning strategies supported by IAEA contributed to increase patient access to radiotherapy services</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>Improved diagnosis capacities and methods for detection of HIV/AIDS, tuberculosis and Malaria through the use of medical isotopes/radioisotopes/radiopharmaceutical supported by IAEA.</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>Increased understanding of new drug treatments effectiveness  for infectious diseases (HIV/AIDS, tuberculosis, malaria) through the use of medical isotopes/radioisotopes/radiopharmaceutical supported by IAEA</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>Improved preparedness, control &amp; response for vector-borne and zoonotic diseases (Corona, Dengue/Zika/avian influenza, malaria, etc.)</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>Increased understanding of nutritional projects' impact using isotopic techniques supported by the IAEA.</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Reduced  incidence of nutritional-based diseases.</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>Malnutrition alleviated (especially for women,children) as a result of the use of Stable Isotope Techniques.</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>Application of energy planning tools with the support of  IAEA in the desicion-making on energy infrastructure</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>Establishment of energy information systems to inform decisions in energy infrastructure</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>National energy plans or integrated resource plans under implementation</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>Support provided by the IAEA in developing the NPP contributed to successful establishement and management of the NPP</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>IAEA supported the feasibility study needed for the introduction of NPPs</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>The monitoring and warning systems contributed to the generation of information and reports for the efficient operation of the NPP</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>IAEA contributed to the increased knowledge on SMRs in the country</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>IAEA support contributed to the improved management of nuclear fuel cycle</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>Increase efficiency of industrial process</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>Increase equality and efficiency of industrial materials</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>Clean and safer industrial process</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>Improve understanding of preservationn of cultural heritage/artefacts</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>Calibration and maintenance of nuclear instrumentation for monitoring and quality control systems</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>Successful planning/establishment of research reactor</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>safe and effective utilization, operation, and maintenance of research reactor</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>successful planning/establishment of accelerator facility</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>safe and effective  operation, maintenance ,and upgrade of accelerator facility</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>Water resource management strategies select water sources based on results of water diagnostics and testing, using isotope hydrology techniques supported by IAEA.</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>Water maps and analysis developed using isotope hydrology techniques supported by IAEA, used to generate plans for site remediation or selection of water sources.</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>Integrated water management plans and actions consider freashwater aquifers and basins characteristics, through the use of isotope hydrology techniques supported by IAEA</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>Transbondary cooperation agreements are informed by the increased understading of freashwater aquifers and basins characteristics, using isotope hydrology techniques supported by IAEA</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>Water mappings and databased (such as vulnerability maps, water balance models etc,)  been used in site remediation, water sourcing management and control plan activities</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>Reliable scientific data on impact of ocean acidification/costal ecosystem vulnerability</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>Reliable scientific data on impact of microplastic in the ocean and its ecosystem</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>Ability to produce data on pollutants and sediments studies</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>Environmental regulations informed by data on pollutants/ negative effect of sediments</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>Data on hab and toxins generated</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>Monitoring global networks on ocean acidifications</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>Monitoring global networks on ocean plastic pollution</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>Strategies and actions plan to combats land-air pollutants</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>Effective and sustainable regulatory infrasturacture /management system in line with IAEA Safety Standards and Guidances</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>Improved safety performance of nuclear installations and fuel cycle facilities through advisory services (including peer review, expert mission, deterministic safety assessment and probabilistic safety assessment, etc. ) offered by the IAEA</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>Safe and secure handling of nuclear and radioactive materials</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>Radioactive Waste under safe and secure storage/treatment/disposal</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>Severe Accident Guidelines/Mitigation Alternatives programs and Emergency Preparedness and Response infrastructure in place</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>Engaged in National radiation monitoring and surveillance network</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>National Diagnostic Reference Levels/Radiation protection programmes for patients implemented</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>Laboratories monitoring occupational radiation exposure / occupational radiation protection systems established/strengthened</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>Action plan developed for occupational radation protection/public exposure protection</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>Systems for monitoring and managing radiation exposure (radon, NORM, legacy remediation, consumer products, commodities, etc.)established</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -343,6 +458,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -624,14 +748,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -647,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -655,7 +779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -663,7 +787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -671,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -679,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -687,7 +811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -695,7 +819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -703,7 +827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -711,7 +835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -719,7 +843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -727,7 +851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -735,7 +859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -743,7 +867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -751,7 +875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -759,7 +883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -767,7 +891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -775,7 +899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -783,7 +907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -791,7 +915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -799,7 +923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -807,7 +931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -815,7 +939,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -823,7 +947,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -831,7 +955,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -839,7 +963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -847,7 +971,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -855,7 +979,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -863,7 +987,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -871,7 +995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -879,7 +1003,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -887,7 +1011,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -895,7 +1019,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -903,7 +1027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -911,7 +1035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -919,7 +1043,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -927,7 +1051,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -935,7 +1059,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -943,7 +1067,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -951,7 +1075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -959,7 +1083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -967,7 +1091,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -975,7 +1099,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -983,7 +1107,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -991,7 +1115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -999,7 +1123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1007,7 +1131,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1015,8 +1139,152 @@
         <v>95</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/questionnaires/categories/impactsyesno.xlsx
+++ b/questionnaires/categories/impactsyesno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E99C57B-6C13-49AD-ADA4-B5956217C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDE9461-3EE3-4073-807F-6EB5E4457A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1410" windowWidth="29070" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13068" yWindow="17172" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -199,31 +199,31 @@
     <t>321</t>
   </si>
   <si>
-    <t>Support provided by the IAEA in developing the NPP contributed to successful establishement and management of the NPP</t>
+    <t>Contribution to successful establishement and management of the NPP</t>
   </si>
   <si>
     <t>322</t>
   </si>
   <si>
-    <t>IAEA supported the feasibility study needed for the introduction of NPPs</t>
+    <t>Support to the feasibility study needed for the introduction of NPPs</t>
   </si>
   <si>
     <t>323</t>
   </si>
   <si>
-    <t>The monitoring and warning systems contributed to the generation of information and reports for the efficient operation of the NPP</t>
+    <t>Contribution to the generation of information and reports for the efficient operation of the NPP</t>
   </si>
   <si>
     <t>324</t>
   </si>
   <si>
-    <t>IAEA contributed to the increased knowledge on SMRs in the country</t>
+    <t>Support to the increased knowledge on SMRs in the country</t>
   </si>
   <si>
     <t>325</t>
   </si>
   <si>
-    <t>IAEA support contributed to the improved management of nuclear fuel cycle</t>
+    <t>Contribution to the improved management of nuclear fuel cycle</t>
   </si>
   <si>
     <t>411</t>
@@ -247,7 +247,7 @@
     <t>421</t>
   </si>
   <si>
-    <t>Improve understanding of preservationn of cultural heritage/artefacts</t>
+    <t>Improve understanding of preservation of cultural heritage/artefacts</t>
   </si>
   <si>
     <t>422</t>
@@ -265,19 +265,19 @@
     <t>432</t>
   </si>
   <si>
-    <t>safe and effective utilization, operation, and maintenance of research reactor</t>
+    <t>Safe and effective utilization, operation, and maintenance of research reactor</t>
   </si>
   <si>
     <t>433</t>
   </si>
   <si>
-    <t>successful planning/establishment of accelerator facility</t>
+    <t>Successful planning/establishment of accelerator facility</t>
   </si>
   <si>
     <t>434</t>
   </si>
   <si>
-    <t>safe and effective  operation, maintenance ,and upgrade of accelerator facility</t>
+    <t>Safe and effective  operation, maintenance ,and upgrade of accelerator facility</t>
   </si>
   <si>
     <t>511</t>
@@ -751,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
